--- a/docentes/Santiago Hernández Mariana - Estadisticos 20211.xlsx
+++ b/docentes/Santiago Hernández Mariana - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>Mat</t>
   </si>
@@ -70,13 +70,49 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>MONTIEL</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>IKER XAVIER</t>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>PELLICO</t>
+  </si>
+  <si>
+    <t>RUGERIO</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>QUIÑONES</t>
+  </si>
+  <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>ANGELINA</t>
+  </si>
+  <si>
+    <t>LUIS REY</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>JAZMIN</t>
+  </si>
+  <si>
+    <t>KIMBERLY</t>
   </si>
 </sst>
 </file>
@@ -480,16 +516,19 @@
         <v>43</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>67.44</v>
+      </c>
+      <c r="H2">
+        <v>7.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -503,16 +542,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>68.97</v>
+      </c>
+      <c r="H3">
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
@@ -571,7 +613,7 @@
         <v>43</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -594,7 +636,7 @@
         <v>29</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -656,16 +698,19 @@
         <v>43</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>67.44</v>
+      </c>
+      <c r="H2">
+        <v>7.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -679,16 +724,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>68.97</v>
+      </c>
+      <c r="H3">
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +746,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -733,25 +781,117 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920275</v>
+        <v>21330051920088</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920099</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920104</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920097</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21330051920383</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Santiago Hernández Mariana - Estadisticos 20211.xlsx
+++ b/docentes/Santiago Hernández Mariana - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>Mat</t>
   </si>
@@ -79,6 +79,9 @@
     <t>DE LOS SANTOS</t>
   </si>
   <si>
+    <t>VILLA</t>
+  </si>
+  <si>
     <t>PELLICO</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>QUIÑONES</t>
   </si>
   <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
     <t>TEQUIHUATLE</t>
   </si>
   <si>
@@ -107,6 +113,9 @@
   </si>
   <si>
     <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>FLOR GUADALUPE</t>
   </si>
   <si>
     <t>JAZMIN</t>
@@ -746,7 +755,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -787,10 +796,10 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -810,10 +819,10 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -833,10 +842,10 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -850,16 +859,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>21330051920097</v>
+        <v>21330051920387</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -873,16 +882,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>21330051920383</v>
+        <v>21330051920097</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -891,6 +900,29 @@
         <v>9</v>
       </c>
       <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>21330051920383</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
     </row>
